--- a/artfynd/A 6861-2021.xlsx
+++ b/artfynd/A 6861-2021.xlsx
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106002741</v>
+        <v>106538494</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,25 +821,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -849,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580759.2328223517</v>
+        <v>580735.7162288441</v>
       </c>
       <c r="R3" t="n">
-        <v>6571012.762967644</v>
+        <v>6571227.517849359</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -879,22 +887,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ett tiotal plantor inom ett område av 4 kvm</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -921,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106538494</v>
+        <v>106002741</v>
       </c>
       <c r="B4" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,33 +950,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -973,10 +978,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580735.7162288441</v>
+        <v>580759.2328223517</v>
       </c>
       <c r="R4" t="n">
-        <v>6571227.517849359</v>
+        <v>6571012.762967644</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1003,27 +1008,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ett tiotal plantor inom ett område av 4 kvm</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 6861-2021.xlsx
+++ b/artfynd/A 6861-2021.xlsx
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106538494</v>
+        <v>106002741</v>
       </c>
       <c r="B3" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,33 +821,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -857,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>580735.7162288441</v>
+        <v>580759.2328223517</v>
       </c>
       <c r="R3" t="n">
-        <v>6571227.517849359</v>
+        <v>6571012.762967644</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -887,27 +879,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ett tiotal plantor inom ett område av 4 kvm</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106002741</v>
+        <v>106538494</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,25 +937,33 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -978,10 +973,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>580759.2328223517</v>
+        <v>580735.7162288441</v>
       </c>
       <c r="R4" t="n">
-        <v>6571012.762967644</v>
+        <v>6571227.517849359</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1008,22 +1003,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ett tiotal plantor inom ett område av 4 kvm</t>
         </is>
       </c>
       <c r="AD4" t="b">
